--- a/Assay Experiment/chlarackmap.xlsx
+++ b/Assay Experiment/chlarackmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c9f30cf11edfc58c/2023 Rtudio/Reservoirs_sulfate/Assay Experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{C6B2DE37-D6B7-4C1A-A06B-43D3F91D79A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54D001BE-7994-4B57-BEF9-092687948DBF}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{C6B2DE37-D6B7-4C1A-A06B-43D3F91D79A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80E65AEC-8634-4984-A383-1687882C4AB3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FC9DBA0A-CE17-4368-BF26-1BC64C3C4842}"/>
+    <workbookView xWindow="15000" yWindow="-15900" windowWidth="13800" windowHeight="16140" xr2:uid="{FC9DBA0A-CE17-4368-BF26-1BC64C3C4842}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
     <t>Date_processed</t>
   </si>
@@ -150,6 +150,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -469,11 +473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA67E96-68DA-4F9A-A01A-E1DF971CC175}">
-  <dimension ref="A1:Z45"/>
+  <dimension ref="A1:Z86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="A1:H1"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1434,7 +1438,830 @@
         <v>1</v>
       </c>
     </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B46">
+        <v>38</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>300</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B48">
+        <v>33</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B49">
+        <v>36</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>300</v>
+      </c>
+      <c r="H49" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>300</v>
+      </c>
+      <c r="H50" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B51">
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>300</v>
+      </c>
+      <c r="H51" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B52">
+        <v>39</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>0.5</v>
+      </c>
+      <c r="E52">
+        <v>300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B53">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <v>0.5</v>
+      </c>
+      <c r="E53">
+        <v>300</v>
+      </c>
+      <c r="H53" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B54">
+        <v>37</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>0.5</v>
+      </c>
+      <c r="E54">
+        <v>300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B55">
+        <v>35</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>0.5</v>
+      </c>
+      <c r="E55">
+        <v>300</v>
+      </c>
+      <c r="H55" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>0.5</v>
+      </c>
+      <c r="E56">
+        <v>300</v>
+      </c>
+      <c r="H56" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B57">
+        <v>34</v>
+      </c>
+      <c r="C57">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>0.5</v>
+      </c>
+      <c r="E57">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>13</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>300</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B59">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <v>14</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B60">
+        <v>30</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B61">
+        <v>47</v>
+      </c>
+      <c r="C61">
+        <v>16</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>300</v>
+      </c>
+      <c r="H61" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B62">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>17</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B63">
+        <v>32</v>
+      </c>
+      <c r="C63">
+        <v>18</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>300</v>
+      </c>
+      <c r="H63" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B64">
+        <v>17</v>
+      </c>
+      <c r="C64">
+        <v>19</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>300</v>
+      </c>
+      <c r="H64" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B65">
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <v>20</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>300</v>
+      </c>
+      <c r="H65" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B66">
+        <v>23</v>
+      </c>
+      <c r="C66">
+        <v>21</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>300</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B67">
+        <v>28</v>
+      </c>
+      <c r="C67">
+        <v>22</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>300</v>
+      </c>
+      <c r="H67" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B68">
+        <v>19</v>
+      </c>
+      <c r="C68">
+        <v>23</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>300</v>
+      </c>
+      <c r="H68" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B69">
+        <v>27</v>
+      </c>
+      <c r="C69">
+        <v>24</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>300</v>
+      </c>
+      <c r="H69" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B70">
+        <v>29</v>
+      </c>
+      <c r="C70">
+        <v>25</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>300</v>
+      </c>
+      <c r="H70" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B71">
+        <v>50</v>
+      </c>
+      <c r="C71">
+        <v>26</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>300</v>
+      </c>
+      <c r="H71" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B72">
+        <v>20</v>
+      </c>
+      <c r="C72">
+        <v>27</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>300</v>
+      </c>
+      <c r="H72" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B73">
+        <v>26</v>
+      </c>
+      <c r="C73">
+        <v>28</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>300</v>
+      </c>
+      <c r="H73" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B74">
+        <v>25</v>
+      </c>
+      <c r="C74">
+        <v>29</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>400</v>
+      </c>
+      <c r="H74" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B75">
+        <v>15</v>
+      </c>
+      <c r="C75">
+        <v>30</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>350</v>
+      </c>
+      <c r="H75" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B76">
+        <v>18</v>
+      </c>
+      <c r="C76">
+        <v>31</v>
+      </c>
+      <c r="D76">
+        <v>7</v>
+      </c>
+      <c r="E76">
+        <v>300</v>
+      </c>
+      <c r="H76" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B77">
+        <v>21</v>
+      </c>
+      <c r="C77">
+        <v>32</v>
+      </c>
+      <c r="D77">
+        <v>7</v>
+      </c>
+      <c r="E77">
+        <v>300</v>
+      </c>
+      <c r="H77" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B78">
+        <v>31</v>
+      </c>
+      <c r="C78">
+        <v>33</v>
+      </c>
+      <c r="D78">
+        <v>7</v>
+      </c>
+      <c r="E78">
+        <v>450</v>
+      </c>
+      <c r="H78" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B79">
+        <v>51</v>
+      </c>
+      <c r="C79">
+        <v>34</v>
+      </c>
+      <c r="D79">
+        <v>7</v>
+      </c>
+      <c r="E79">
+        <v>300</v>
+      </c>
+      <c r="H79" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B80">
+        <v>48</v>
+      </c>
+      <c r="C80">
+        <v>35</v>
+      </c>
+      <c r="D80">
+        <v>7</v>
+      </c>
+      <c r="E80">
+        <v>300</v>
+      </c>
+      <c r="H80" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B81">
+        <v>22</v>
+      </c>
+      <c r="C81">
+        <v>36</v>
+      </c>
+      <c r="D81">
+        <v>7</v>
+      </c>
+      <c r="E81">
+        <v>300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82">
+        <v>300</v>
+      </c>
+      <c r="H82" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B83">
+        <v>13</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>300</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B84">
+        <v>46</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>300</v>
+      </c>
+      <c r="H84" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B85">
+        <v>40</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>500</v>
+      </c>
+      <c r="H85" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <v>500</v>
+      </c>
+      <c r="H86" s="3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C46:E79">
+    <sortCondition ref="C46:C79"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <cellWatches>
